--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="981">
   <si>
     <t>anchor score</t>
   </si>
@@ -295,628 +295,628 @@
     <t>doubled</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>contracting</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>impacted</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>lack</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>halt</t>
-  </si>
-  <si>
-    <t>claim</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>contracting</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>impacted</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>lack</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>policy</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>competition</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>wipe</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>love</t>
@@ -3322,10 +3322,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K5">
         <v>0.8740157480314961</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K6">
         <v>0.8642857142857143</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K8">
         <v>0.8125</v>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K9">
         <v>0.802547770700637</v>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K10">
         <v>0.7952127659574468</v>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K11">
         <v>0.7931034482758621</v>
@@ -3854,28 +3854,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>299</v>
       </c>
       <c r="K12">
-        <v>0.7456140350877193</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L12">
         <v>170</v>
       </c>
       <c r="M12">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13">
         <v>0.6966292134831461</v>
@@ -3954,7 +3954,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K14">
         <v>0.6855123674911661</v>
@@ -4004,28 +4004,28 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>300</v>
       </c>
       <c r="K15">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="L15">
         <v>221</v>
       </c>
       <c r="M15">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K16">
         <v>0.6417910447761194</v>
@@ -4154,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K18">
         <v>0.6</v>
@@ -4204,7 +4204,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K19">
         <v>0.5964912280701754</v>
@@ -4254,7 +4254,7 @@
         <v>67</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K20">
         <v>0.532258064516129</v>
@@ -4354,7 +4354,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K22">
         <v>0.5</v>
@@ -4404,7 +4404,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K23">
         <v>0.4873417721518987</v>
@@ -4454,7 +4454,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K24">
         <v>0.4711538461538461</v>
@@ -4504,7 +4504,7 @@
         <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K25">
         <v>0.4666666666666667</v>
@@ -4554,7 +4554,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K26">
         <v>0.4662576687116564</v>
@@ -4654,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K28">
         <v>0.4596273291925466</v>
@@ -4854,7 +4854,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K32">
         <v>0.4375</v>
@@ -4954,7 +4954,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K34">
         <v>0.4210526315789473</v>
@@ -5004,7 +5004,7 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K35">
         <v>0.4181818181818182</v>
@@ -5054,7 +5054,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K36">
         <v>0.4153846153846154</v>
@@ -5104,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K37">
         <v>0.412280701754386</v>
@@ -5154,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K38">
         <v>0.4090909090909091</v>
@@ -5204,7 +5204,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K39">
         <v>0.40625</v>
@@ -5254,7 +5254,7 @@
         <v>7</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K40">
         <v>0.4042553191489361</v>
@@ -5654,7 +5654,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K48">
         <v>0.3711340206185567</v>
@@ -5804,7 +5804,7 @@
         <v>276</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K51">
         <v>0.3666666666666666</v>
@@ -5854,7 +5854,7 @@
         <v>7</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K52">
         <v>0.3653846153846154</v>
@@ -6004,7 +6004,7 @@
         <v>5</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K55">
         <v>0.3515625</v>
@@ -6054,7 +6054,7 @@
         <v>5</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K56">
         <v>0.3508771929824561</v>
@@ -6104,7 +6104,7 @@
         <v>34</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K57">
         <v>0.3481481481481482</v>
@@ -6654,7 +6654,7 @@
         <v>36</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K68">
         <v>0.3311475409836065</v>
@@ -6704,7 +6704,7 @@
         <v>5</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K69">
         <v>0.3308823529411765</v>
@@ -6754,7 +6754,7 @@
         <v>13</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K70">
         <v>0.3285714285714286</v>
@@ -6804,7 +6804,7 @@
         <v>8</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K71">
         <v>0.3246899661781285</v>
@@ -6854,7 +6854,7 @@
         <v>14</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K72">
         <v>0.3244047619047619</v>
@@ -7054,7 +7054,7 @@
         <v>10</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K76">
         <v>0.3166666666666667</v>
@@ -7204,7 +7204,7 @@
         <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K79">
         <v>0.3142857142857143</v>
@@ -7254,7 +7254,7 @@
         <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K80">
         <v>0.3125</v>
@@ -7504,7 +7504,7 @@
         <v>5</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K85">
         <v>0.3057757644394111</v>
@@ -7554,7 +7554,7 @@
         <v>5</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K86">
         <v>0.3009404388714734</v>
@@ -7633,25 +7633,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1594202898550725</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>339</v>
@@ -7683,25 +7683,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1578947368421053</v>
+        <v>0.15625</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>340</v>
@@ -7733,25 +7733,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.15625</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>341</v>
@@ -7786,10 +7786,10 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7801,10 +7801,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K91">
         <v>0.2945205479452055</v>
@@ -7833,13 +7833,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>342</v>
@@ -7954,7 +7954,7 @@
         <v>6</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K94">
         <v>0.2903225806451613</v>
@@ -8039,22 +8039,22 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>6</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K96">
         <v>0.2887323943661972</v>
@@ -8083,25 +8083,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1428571428571428</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>345</v>
@@ -8133,13 +8133,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>346</v>
@@ -8183,25 +8183,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1260504201680672</v>
+        <v>0.125</v>
       </c>
       <c r="C99">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>347</v>
@@ -8236,10 +8236,10 @@
         <v>0.125</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>348</v>
@@ -8283,25 +8283,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.125</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>349</v>
@@ -8333,25 +8333,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>350</v>
@@ -8383,25 +8383,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1188118811881188</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C103">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="E103">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>351</v>
@@ -8433,25 +8433,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>352</v>
@@ -8483,25 +8483,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>353</v>
@@ -8536,22 +8536,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>354</v>
@@ -8583,28 +8583,28 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107">
         <v>2</v>
       </c>
       <c r="E107">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K107">
         <v>0.2717584369449378</v>
@@ -8633,13 +8633,13 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D108">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E108">
         <v>0.93</v>
@@ -8651,10 +8651,10 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K108">
         <v>0.2714285714285714</v>
@@ -8683,13 +8683,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K109">
         <v>0.2692307692307692</v>
@@ -8733,25 +8733,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>355</v>
@@ -8786,10 +8786,10 @@
         <v>0.1</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>356</v>
@@ -8854,7 +8854,7 @@
         <v>9</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K112">
         <v>0.2597156398104266</v>
@@ -8883,28 +8883,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K113">
         <v>0.2595419847328244</v>
@@ -8933,28 +8933,28 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K114">
         <v>0.2592592592592592</v>
@@ -8983,25 +8983,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>357</v>
@@ -9033,25 +9033,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>358</v>
@@ -9104,7 +9104,7 @@
         <v>10</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K117">
         <v>0.2575757575757576</v>
@@ -9154,7 +9154,7 @@
         <v>10</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K118">
         <v>0.2568807339449541</v>
@@ -9186,25 +9186,25 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K119">
         <v>0.2517117704597326</v>
@@ -9286,22 +9286,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>360</v>
@@ -9333,25 +9333,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.09090909090909091</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>361</v>
@@ -9383,7 +9383,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>362</v>
@@ -9433,25 +9433,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.08823529411764706</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>363</v>
@@ -9489,16 +9489,16 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>11</v>
@@ -9536,22 +9536,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>365</v>
@@ -9586,22 +9586,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E127">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F127">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>366</v>
@@ -9636,22 +9636,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C128">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>306</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>367</v>
@@ -9683,25 +9683,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>368</v>
@@ -9733,13 +9733,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -9751,10 +9751,10 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K130">
         <v>0.2402496099843994</v>
@@ -9783,25 +9783,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.08108108108108109</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>369</v>
@@ -9833,13 +9833,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>370</v>
@@ -9883,25 +9883,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>371</v>
@@ -9933,25 +9933,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>372</v>
@@ -9986,22 +9986,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>373</v>
@@ -10083,28 +10083,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F137">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K137">
         <v>0.2307692307692308</v>
@@ -10133,28 +10133,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K138">
         <v>0.2307692307692308</v>
@@ -10189,16 +10189,16 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>14</v>
@@ -10233,7 +10233,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>376</v>
@@ -10283,7 +10283,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>377</v>
@@ -10333,25 +10333,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>378</v>
@@ -10383,25 +10383,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0625</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>379</v>
@@ -10433,25 +10433,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.06</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>380</v>
@@ -10483,25 +10483,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.05982905982905983</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C145">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F145">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>381</v>
@@ -10536,22 +10536,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>382</v>
@@ -10586,22 +10586,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E147">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F147">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>383</v>
@@ -10633,25 +10633,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D148">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="E148">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="F148">
-        <v>0.01000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>384</v>
@@ -10683,25 +10683,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05882352941176471</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D149">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="E149">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F149">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>385</v>
@@ -10733,25 +10733,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05714285714285714</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>386</v>
@@ -10783,25 +10783,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05676855895196507</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="C151">
         <v>13</v>
       </c>
       <c r="D151">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="E151">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F151">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>387</v>
@@ -10833,7 +10833,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -10851,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>388</v>
@@ -10883,25 +10883,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05416666666666667</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C153">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>389</v>
@@ -10936,25 +10936,25 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K154">
         <v>0.2147239263803681</v>
@@ -10989,16 +10989,16 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>18</v>
@@ -11039,13 +11039,13 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F156">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
@@ -11054,7 +11054,7 @@
         <v>18</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K156">
         <v>0.2142857142857143</v>
@@ -11089,16 +11089,16 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>18</v>
@@ -11133,25 +11133,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158">
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>392</v>
@@ -11183,28 +11183,28 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K159">
         <v>0.2075471698113208</v>
@@ -11233,28 +11233,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.05128205128205128</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K160">
         <v>0.2068965517241379</v>
@@ -11283,25 +11283,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
       <c r="D161">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>393</v>
@@ -11339,13 +11339,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E162">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F162">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -11354,7 +11354,7 @@
         <v>20</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K162">
         <v>0.2038834951456311</v>
@@ -11383,25 +11383,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E163">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>394</v>
@@ -11433,25 +11433,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>395</v>
@@ -11483,25 +11483,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>0.75</v>
+      </c>
+      <c r="F165">
+        <v>0.25</v>
+      </c>
+      <c r="G165" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165">
         <v>22</v>
-      </c>
-      <c r="E165">
-        <v>0.95</v>
-      </c>
-      <c r="F165">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G165" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165">
-        <v>21</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>396</v>
@@ -11539,16 +11539,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>22</v>
@@ -11604,7 +11604,7 @@
         <v>22</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K167">
         <v>0.2</v>
@@ -11639,16 +11639,16 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>22</v>
@@ -11683,25 +11683,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04347826086956522</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E169">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>399</v>
@@ -11733,25 +11733,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>400</v>
@@ -11783,13 +11783,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04216867469879518</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C171">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>401</v>
@@ -11839,13 +11839,13 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E172">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F172">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
@@ -11883,28 +11883,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04166666666666666</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K173">
         <v>0.2</v>
@@ -11933,25 +11933,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.04166666666666666</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D174">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E174">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>403</v>
@@ -11983,25 +11983,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.04040404040404041</v>
+        <v>0.04</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>404</v>
@@ -12033,25 +12033,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.04026845637583892</v>
+        <v>0.04</v>
       </c>
       <c r="C176">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>405</v>
@@ -12089,16 +12089,16 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>24</v>
@@ -12133,25 +12133,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.04</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E178">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F178">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>84</v>
@@ -12183,25 +12183,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F179">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>85</v>
@@ -12233,28 +12233,28 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03773584905660377</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D180">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E180">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F180">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K180">
         <v>0.1948051948051948</v>
@@ -12283,25 +12283,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>407</v>
@@ -12333,25 +12333,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03623188405797102</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C182">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E182">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F182">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>408</v>
@@ -12386,25 +12386,25 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K183">
         <v>0.192</v>
@@ -12433,28 +12433,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03571428571428571</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E184">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F184">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K184">
         <v>0.18931475029036</v>
@@ -12483,28 +12483,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03571428571428571</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="C185">
         <v>3</v>
       </c>
       <c r="D185">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E185">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K185">
         <v>0.1891891891891892</v>
@@ -12533,28 +12533,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03508771929824561</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D186">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E186">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F186">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K186">
         <v>0.1886792452830189</v>
@@ -12583,25 +12583,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03488372093023256</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>409</v>
@@ -12633,25 +12633,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03463203463203463</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C188">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E188">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F188">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>410</v>
@@ -12686,22 +12686,22 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>411</v>
@@ -12739,13 +12739,13 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E190">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F190">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
@@ -12783,25 +12783,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E191">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F191">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>413</v>
@@ -12833,25 +12833,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03448275862068965</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D192">
         <v>20</v>
       </c>
       <c r="E192">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="F192">
-        <v>0.05000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>414</v>
@@ -12883,28 +12883,28 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K193">
         <v>0.1851851851851852</v>
@@ -12933,28 +12933,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03260869565217391</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
         <v>3</v>
       </c>
-      <c r="D194">
-        <v>20</v>
-      </c>
       <c r="E194">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="F194">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K194">
         <v>0.1829787234042553</v>
@@ -12983,25 +12983,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>415</v>
@@ -13033,25 +13033,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E196">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F196">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>416</v>
@@ -13083,25 +13083,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.03125</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E197">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F197">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>417</v>
@@ -13133,25 +13133,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E198">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F198">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>418</v>
@@ -13183,25 +13183,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02857142857142857</v>
+        <v>0.02846975088967971</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="E199">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F199">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>419</v>
@@ -13233,25 +13233,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>420</v>
@@ -13283,25 +13283,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02846975088967971</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C201">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="E201">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F201">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>421</v>
@@ -13339,16 +13339,16 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
         <v>35</v>
@@ -13433,25 +13433,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>424</v>
@@ -13483,25 +13483,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E205">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F205">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>425</v>
@@ -13533,25 +13533,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>426</v>
@@ -13583,7 +13583,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13601,7 +13601,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>427</v>
@@ -13639,13 +13639,13 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E208">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F208">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
@@ -13683,28 +13683,28 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E209">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F209">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K209">
         <v>0.1764705882352941</v>
@@ -13733,25 +13733,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02564102564102564</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E210">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F210">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>429</v>
@@ -13783,25 +13783,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.025</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>430</v>
@@ -13833,28 +13833,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K212">
         <v>0.1748633879781421</v>
@@ -13883,25 +13883,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02325581395348837</v>
+        <v>0.02283849918433932</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>302</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>42</v>
+        <v>599</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>431</v>
@@ -13933,25 +13933,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>432</v>
@@ -13983,25 +13983,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02283849918433932</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C215">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>302</v>
+        <v>2</v>
       </c>
       <c r="E215">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F215">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>599</v>
+        <v>43</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>433</v>
@@ -14033,25 +14033,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02272727272727273</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E216">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F216">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>434</v>
@@ -14083,25 +14083,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02272727272727273</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E217">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F217">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>435</v>
@@ -14133,25 +14133,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02247191011235955</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
       <c r="D218">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E218">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F218">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>436</v>
@@ -14183,25 +14183,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02247191011235955</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
       <c r="D219">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E219">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F219">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>437</v>
@@ -14233,28 +14233,28 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02222222222222222</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
       <c r="D220">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F220">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K220">
         <v>0.1707317073170732</v>
@@ -14283,28 +14283,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02197802197802198</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F221">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K221">
         <v>0.1707317073170732</v>
@@ -14333,28 +14333,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02197802197802198</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F222">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K222">
         <v>0.1695906432748538</v>
@@ -14383,25 +14383,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E223">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F223">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>438</v>
@@ -14433,7 +14433,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14451,7 +14451,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>439</v>
@@ -14483,25 +14483,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02083333333333333</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D225">
-        <v>10</v>
+        <v>581</v>
       </c>
       <c r="E225">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F225">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>47</v>
+        <v>1562</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>440</v>
@@ -14533,25 +14533,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02083333333333333</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E226">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F226">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>441</v>
@@ -14583,25 +14583,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02068965517241379</v>
+        <v>0.02</v>
       </c>
       <c r="C227">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>581</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>1562</v>
+        <v>49</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>442</v>
@@ -14633,25 +14633,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0202020202020202</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C228">
         <v>2</v>
       </c>
       <c r="D228">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E228">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F228">
-        <v>0.06000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>443</v>
@@ -14683,7 +14683,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>444</v>
@@ -14733,28 +14733,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0198019801980198</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E230">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F230">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K230">
         <v>0.1666666666666667</v>
@@ -14783,25 +14783,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0196078431372549</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>445</v>
@@ -14833,25 +14833,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E232">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F232">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>446</v>
@@ -14883,25 +14883,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01941747572815534</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E233">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F233">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>447</v>
@@ -14933,25 +14933,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E234">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F234">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>448</v>
@@ -14983,25 +14983,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E235">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F235">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>449</v>
@@ -15033,25 +15033,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>450</v>
@@ -15083,25 +15083,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01851851851851852</v>
+        <v>0.01814516129032258</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D237">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="E237">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F237">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>106</v>
+        <v>487</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>451</v>
@@ -15133,25 +15133,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01818181818181818</v>
+        <v>0.01762820512820513</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>54</v>
+        <v>613</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>452</v>
@@ -15183,25 +15183,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01814516129032258</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C239">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F239">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>487</v>
+        <v>56</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>453</v>
@@ -15233,25 +15233,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01762820512820513</v>
+        <v>0.01713062098501071</v>
       </c>
       <c r="C240">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D240">
-        <v>281</v>
+        <v>812</v>
       </c>
       <c r="E240">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F240">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>613</v>
+        <v>2295</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>454</v>
@@ -15283,25 +15283,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E241">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F241">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>455</v>
@@ -15333,25 +15333,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01713062098501071</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C242">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>812</v>
+        <v>5</v>
       </c>
       <c r="E242">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F242">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>2295</v>
+        <v>59</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>456</v>
@@ -15383,25 +15383,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E243">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F243">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>457</v>
@@ -15433,25 +15433,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F244">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>458</v>
@@ -15483,25 +15483,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01639344262295082</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E245">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F245">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>459</v>
@@ -15533,25 +15533,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E246">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F246">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>460</v>
@@ -15583,25 +15583,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01587301587301587</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E247">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="F247">
-        <v>0.06000000000000005</v>
+        <v>0.29</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>461</v>
@@ -15633,25 +15633,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.015625</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E248">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F248">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>462</v>
@@ -15683,25 +15683,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01515151515151515</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D249">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="E249">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="F249">
-        <v>0.29</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>463</v>
@@ -15733,25 +15733,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01515151515151515</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E250">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F250">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>464</v>
@@ -15783,25 +15783,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01507537688442211</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>465</v>
@@ -15833,25 +15833,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01492537313432836</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E252">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F252">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>466</v>
@@ -15883,25 +15883,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01470588235294118</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>467</v>
@@ -15933,25 +15933,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01470588235294118</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E254">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F254">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>468</v>
@@ -15983,25 +15983,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01449275362318841</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E255">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F255">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>469</v>
@@ -16033,25 +16033,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01428571428571429</v>
+        <v>0.01340482573726542</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D256">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>69</v>
+        <v>368</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>470</v>
@@ -16083,25 +16083,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0136986301369863</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E257">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F257">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>471</v>
@@ -16133,25 +16133,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01340482573726542</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C258">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>368</v>
+        <v>148</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>472</v>
@@ -16183,28 +16183,28 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01333333333333333</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E259">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F259">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K259">
         <v>0.1653543307086614</v>
@@ -16233,28 +16233,28 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01333333333333333</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E260">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F260">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K260">
         <v>0.1648351648351648</v>
@@ -16283,28 +16283,28 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0130718954248366</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E261">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F261">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K261">
         <v>0.1621621621621622</v>
@@ -16333,28 +16333,28 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01298701298701299</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E262">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F262">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K262">
         <v>0.1607142857142857</v>
@@ -16383,25 +16383,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01265822784810127</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E263">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F263">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>473</v>
@@ -16433,28 +16433,28 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01219512195121951</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E264">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K264">
         <v>0.160377358490566</v>
@@ -16483,7 +16483,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01204819277108434</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16501,7 +16501,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>474</v>
@@ -16533,25 +16533,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01111111111111111</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>475</v>
@@ -16583,25 +16583,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01098901098901099</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E267">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F267">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>476</v>
@@ -16633,25 +16633,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01030927835051546</v>
+        <v>0.01</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E268">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F268">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>477</v>
@@ -16683,28 +16683,28 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0101010101010101</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E269">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F269">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K269">
         <v>0.15625</v>
@@ -16733,25 +16733,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="E270">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F270">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>99</v>
+        <v>410</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>478</v>
@@ -16783,25 +16783,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.009803921568627451</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E271">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F271">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>479</v>
@@ -16833,25 +16833,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.00966183574879227</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C272">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="E272">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F272">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>410</v>
+        <v>103</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>480</v>
@@ -16883,25 +16883,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.009615384615384616</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E273">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F273">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>481</v>
@@ -16933,25 +16933,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.009615384615384616</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E274">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F274">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>482</v>
@@ -16983,28 +16983,28 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.00909090909090909</v>
+        <v>0.008522727272727272</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D275">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="E275">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F275">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>109</v>
+        <v>698</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K275">
         <v>0.1515151515151515</v>
@@ -17033,25 +17033,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.008849557522123894</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E276">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F276">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>483</v>
@@ -17083,25 +17083,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.008522727272727272</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C277">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="E277">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F277">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>698</v>
+        <v>123</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>484</v>
@@ -17133,25 +17133,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.008264462809917356</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E278">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H278">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>485</v>
@@ -17183,25 +17183,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.008064516129032258</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E279">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F279">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>486</v>
@@ -17233,25 +17233,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.007936507936507936</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>487</v>
@@ -17283,25 +17283,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.007751937984496124</v>
+        <v>0.007366482504604052</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D281">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="E281">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F281">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>128</v>
+        <v>1078</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>488</v>
@@ -17333,25 +17333,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.007407407407407408</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E282">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F282">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>489</v>
@@ -17383,28 +17383,28 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.007366482504604052</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C283">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D283">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="E283">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="F283">
-        <v>0.09999999999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>1078</v>
+        <v>286</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K283">
         <v>0.1473214285714286</v>
@@ -17433,28 +17433,28 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.006993006993006993</v>
+        <v>0.006417112299465241</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D284">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E284">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="F284">
-        <v>0.03000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>142</v>
+        <v>929</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K284">
         <v>0.1470588235294118</v>
@@ -17483,28 +17483,28 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.006944444444444444</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="E285">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="F285">
-        <v>0.01000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K285">
         <v>0.1451612903225807</v>
@@ -17533,25 +17533,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.006417112299465241</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="C286">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D286">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E286">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="F286">
-        <v>0.15</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>929</v>
+        <v>340</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>490</v>
@@ -17583,25 +17583,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.006024096385542169</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E287">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F287">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>491</v>
@@ -17633,25 +17633,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.005847953216374269</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="C288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E288">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F288">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>340</v>
+        <v>191</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>492</v>
@@ -17683,25 +17683,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.005263157894736842</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E289">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F289">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>493</v>
@@ -17733,13 +17733,13 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.005208333333333333</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E290">
         <v>0.97</v>
@@ -17751,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>494</v>
@@ -17783,25 +17783,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.004273504273504274</v>
+        <v>0.003460207612456748</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E291">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F291">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>495</v>
@@ -17833,13 +17833,13 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.004048582995951417</v>
+        <v>0.002710945442222975</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D292">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="E292">
         <v>0.97</v>
@@ -17851,7 +17851,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>246</v>
+        <v>2943</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>496</v>
@@ -17883,25 +17883,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.003460207612456748</v>
+        <v>0.001904761904761905</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E293">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F293">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>497</v>
@@ -17929,30 +17929,6 @@
       </c>
     </row>
     <row r="294" spans="1:17">
-      <c r="A294" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B294">
-        <v>0.002710945442222975</v>
-      </c>
-      <c r="C294">
-        <v>8</v>
-      </c>
-      <c r="D294">
-        <v>258</v>
-      </c>
-      <c r="E294">
-        <v>0.97</v>
-      </c>
-      <c r="F294">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G294" t="b">
-        <v>1</v>
-      </c>
-      <c r="H294">
-        <v>2943</v>
-      </c>
       <c r="J294" s="1" t="s">
         <v>498</v>
       </c>
@@ -17979,30 +17955,6 @@
       </c>
     </row>
     <row r="295" spans="1:17">
-      <c r="A295" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B295">
-        <v>0.001904761904761905</v>
-      </c>
-      <c r="C295">
-        <v>1</v>
-      </c>
-      <c r="D295">
-        <v>21</v>
-      </c>
-      <c r="E295">
-        <v>0.95</v>
-      </c>
-      <c r="F295">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G295" t="b">
-        <v>1</v>
-      </c>
-      <c r="H295">
-        <v>524</v>
-      </c>
       <c r="J295" s="1" t="s">
         <v>499</v>
       </c>
@@ -18394,7 +18346,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K310">
         <v>0.1428571428571428</v>
@@ -18940,7 +18892,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K331">
         <v>0.1363636363636364</v>
@@ -19044,7 +18996,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K335">
         <v>0.1346153846153846</v>
@@ -19122,7 +19074,7 @@
     </row>
     <row r="338" spans="10:17">
       <c r="J338" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K338">
         <v>0.1333333333333333</v>
@@ -19200,7 +19152,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K341">
         <v>0.1333333333333333</v>
@@ -19252,7 +19204,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K343">
         <v>0.1333333333333333</v>
@@ -19408,7 +19360,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K349">
         <v>0.1304347826086956</v>
@@ -19434,7 +19386,7 @@
     </row>
     <row r="350" spans="10:17">
       <c r="J350" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K350">
         <v>0.1304347826086956</v>
@@ -20630,7 +20582,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K396">
         <v>0.1214285714285714</v>
@@ -20682,7 +20634,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K398">
         <v>0.12</v>
@@ -20708,7 +20660,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K399">
         <v>0.12</v>
@@ -21020,7 +20972,7 @@
     </row>
     <row r="411" spans="10:17">
       <c r="J411" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K411">
         <v>0.1136363636363636</v>
@@ -21046,7 +20998,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K412">
         <v>0.1136363636363636</v>
@@ -21098,7 +21050,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K414">
         <v>0.1111111111111111</v>
@@ -21306,7 +21258,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K422">
         <v>0.1111111111111111</v>
@@ -21488,7 +21440,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K429">
         <v>0.1111111111111111</v>
@@ -21774,7 +21726,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K440">
         <v>0.1052631578947368</v>
@@ -21982,7 +21934,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K448">
         <v>0.1021897810218978</v>
@@ -22086,7 +22038,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K452">
         <v>0.1</v>
@@ -22736,7 +22688,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K477">
         <v>0.09677419354838709</v>
@@ -22788,7 +22740,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K479">
         <v>0.0958904109589041</v>
@@ -23646,7 +23598,7 @@
     </row>
     <row r="512" spans="10:17">
       <c r="J512" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K512">
         <v>0.08695652173913043</v>
@@ -24218,7 +24170,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K534">
         <v>0.08247422680412371</v>
@@ -24374,7 +24326,7 @@
     </row>
     <row r="540" spans="10:17">
       <c r="J540" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K540">
         <v>0.08</v>
@@ -24400,7 +24352,7 @@
     </row>
     <row r="541" spans="10:17">
       <c r="J541" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K541">
         <v>0.07894736842105263</v>
@@ -24426,7 +24378,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K542">
         <v>0.07894736842105263</v>
@@ -24478,7 +24430,7 @@
     </row>
     <row r="544" spans="10:17">
       <c r="J544" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K544">
         <v>0.07829627309740056</v>
@@ -24920,7 +24872,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K561">
         <v>0.07317073170731707</v>
@@ -24946,7 +24898,7 @@
     </row>
     <row r="562" spans="10:17">
       <c r="J562" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K562">
         <v>0.07272727272727272</v>
@@ -25102,7 +25054,7 @@
     </row>
     <row r="568" spans="10:17">
       <c r="J568" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K568">
         <v>0.07142857142857142</v>
@@ -26220,7 +26172,7 @@
     </row>
     <row r="611" spans="10:17">
       <c r="J611" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K611">
         <v>0.0660377358490566</v>
@@ -26246,7 +26198,7 @@
     </row>
     <row r="612" spans="10:17">
       <c r="J612" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K612">
         <v>0.06504770164787511</v>
@@ -26350,7 +26302,7 @@
     </row>
     <row r="616" spans="10:17">
       <c r="J616" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K616">
         <v>0.06349206349206349</v>
@@ -26428,7 +26380,7 @@
     </row>
     <row r="619" spans="10:17">
       <c r="J619" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K619">
         <v>0.0625</v>
@@ -26636,7 +26588,7 @@
     </row>
     <row r="627" spans="10:17">
       <c r="J627" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K627">
         <v>0.06122448979591837</v>
@@ -26818,7 +26770,7 @@
     </row>
     <row r="634" spans="10:17">
       <c r="J634" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K634">
         <v>0.06</v>
@@ -27546,7 +27498,7 @@
     </row>
     <row r="662" spans="10:17">
       <c r="J662" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K662">
         <v>0.05511811023622047</v>
@@ -27624,7 +27576,7 @@
     </row>
     <row r="665" spans="10:17">
       <c r="J665" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K665">
         <v>0.05405405405405406</v>
@@ -27702,7 +27654,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K668">
         <v>0.05263157894736842</v>
@@ -27858,7 +27810,7 @@
     </row>
     <row r="674" spans="10:17">
       <c r="J674" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K674">
         <v>0.05128205128205128</v>
@@ -27910,7 +27862,7 @@
     </row>
     <row r="676" spans="10:17">
       <c r="J676" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K676">
         <v>0.05027932960893855</v>
@@ -28014,7 +27966,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K680">
         <v>0.05</v>
@@ -28508,7 +28460,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K699">
         <v>0.04545454545454546</v>
@@ -28794,7 +28746,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K710">
         <v>0.04385964912280702</v>
@@ -28950,7 +28902,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K716">
         <v>0.04301075268817205</v>
@@ -29496,7 +29448,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K737">
         <v>0.03703703703703703</v>
@@ -29548,7 +29500,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K739">
         <v>0.03676470588235294</v>
@@ -29912,7 +29864,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K753">
         <v>0.03430353430353431</v>
@@ -30224,7 +30176,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K765">
         <v>0.02941176470588235</v>
@@ -30978,7 +30930,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K794">
         <v>0.02272727272727273</v>
@@ -31186,7 +31138,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K802">
         <v>0.0218978102189781</v>
@@ -31394,7 +31346,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K810">
         <v>0.01904761904761905</v>
@@ -31472,7 +31424,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K813">
         <v>0.01754385964912281</v>
@@ -31680,7 +31632,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K821">
         <v>0.015625</v>
@@ -31758,7 +31710,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K824">
         <v>0.0136986301369863</v>
@@ -31836,7 +31788,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K827">
         <v>0.01333333333333333</v>
@@ -31992,7 +31944,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K833">
         <v>0.0101010101010101</v>
@@ -32018,7 +31970,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K834">
         <v>0.01</v>
@@ -32044,7 +31996,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K835">
         <v>0.008510638297872341</v>
@@ -32122,7 +32074,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K838">
         <v>0.005263157894736842</v>
